--- a/relatorios_padaria/Vendas_Diarias/Relatorio_de_Vendas_Diarias_29-08-2025.xlsx
+++ b/relatorios_padaria/Vendas_Diarias/Relatorio_de_Vendas_Diarias_29-08-2025.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>18</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>10000535.5</v>
+        <v>10000657.5</v>
       </c>
     </row>
     <row r="11">
@@ -559,7 +559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,8 +826,58 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Venda Balcão</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>29/08/2025 23:02:26</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>receita</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Dinheiro</t>
+        </is>
+      </c>
+    </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Venda Balcão</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>29/08/2025 23:05:18</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>receita</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Dinheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>Sistema desenvolvido por ROBSON ALVES</t>
         </is>

--- a/relatorios_padaria/Vendas_Diarias/Relatorio_de_Vendas_Diarias_29-08-2025.xlsx
+++ b/relatorios_padaria/Vendas_Diarias/Relatorio_de_Vendas_Diarias_29-08-2025.xlsx
@@ -20,7 +20,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="R$ #,##0.00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -30,11 +30,6 @@
     </font>
     <font>
       <b val="1"/>
-    </font>
-    <font>
-      <i val="1"/>
-      <color rgb="00A0A0A0"/>
-      <sz val="8"/>
     </font>
   </fonts>
   <fills count="2">
@@ -63,15 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -437,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,15 +533,16 @@
         <v>10000657.5</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>Sistema desenvolvido por ROBSON ALVES</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;CPágina &amp;P de &amp;N&amp;RSistema desenvolvido por ROBSON ALVES</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -559,7 +552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -876,14 +869,15 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>Sistema desenvolvido por ROBSON ALVES</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;CPágina &amp;P de &amp;N&amp;RSistema desenvolvido por ROBSON ALVES</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>